--- a/reports/corpus_1-unigram_bigram_trigram-fold-5.xlsx
+++ b/reports/corpus_1-unigram_bigram_trigram-fold-5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>!</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -446,165 +446,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>?</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>CDA</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>CDI</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>CDO</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>CDP</t>
+          <t>CON</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>DRB</t>
+          <t>FW</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>FRB</t>
+          <t>JJ</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>JJ</t>
+          <t>NEG</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>NEG</t>
+          <t>NNP</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>PRP</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>NNC</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>NNG</t>
+          <t>RP</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>NNP</t>
+          <t>VB</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>NNU</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>PRL</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>PRP</t>
+          <t>macro avg</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>RP</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>TRB</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>UH</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>VBI</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>VBK</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>VBR</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>VBT</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>WDT</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>WPRB</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>macro avg</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>weighted avg</t>
         </is>
@@ -617,109 +557,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7916666666666666</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.97</v>
+        <v>0.9964788732394366</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="F2" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.7193877551020408</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.9251700680272109</v>
       </c>
       <c r="J2" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.72</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.3011363636363636</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1555555555555556</v>
+        <v>0.28</v>
       </c>
       <c r="N2" t="n">
-        <v>0.103448275862069</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5</v>
+        <v>0.9964539007092199</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3</v>
+        <v>0.2635658914728682</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="R2" t="n">
-        <v>0.04</v>
+        <v>0.5132075471698113</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3278688524590164</v>
+        <v>0.1932584269662921</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.6217543859649123</v>
       </c>
       <c r="W2" t="n">
-        <v>0.4</v>
+        <v>0.4737591719960513</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1724137931034483</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.3902439024390244</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.03125</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.119047619047619</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.4062186559679037</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.2931787560092003</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.8771823827410318</v>
+        <v>0.8584499169749052</v>
       </c>
     </row>
     <row r="3">
@@ -729,7 +633,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -738,100 +642,64 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9722222222222222</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.8983050847457628</v>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.875</v>
-      </c>
       <c r="N3" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0.3527934714375393</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1015384615384615</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0.9645390070921985</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.9882352941176471</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0.9052631578947369</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>0.6217543859649123</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0.7559333363061472</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.4062186559679037</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0.673779813936064</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.4062186559679037</v>
+        <v>0.6217543859649123</v>
       </c>
     </row>
     <row r="4">
@@ -841,109 +709,73 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8837209302325582</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9847715736040609</v>
+        <v>0.998236331569665</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.2553191489361702</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2222222222222222</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.815028901734104</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8518518518518519</v>
+        <v>0.9611307420494699</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8372093023255813</v>
+        <v>0.8588957055214724</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.4510638297872341</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2641509433962265</v>
+        <v>0.4375000000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1846153846153846</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5210941121928604</v>
       </c>
       <c r="P4" t="n">
-        <v>0.4615384615384615</v>
+        <v>0.4171779141104295</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1843575418994413</v>
+        <v>0.8505747126436781</v>
       </c>
       <c r="R4" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.6699507389162561</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.8195121951219513</v>
       </c>
       <c r="T4" t="n">
-        <v>0.4938271604938271</v>
+        <v>0.3185185185185185</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.4313725490196078</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.6217543859649123</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.5311072793228411</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2941176470588235</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.5079365079365079</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.4444444444444445</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.2127659574468085</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.3333333333333334</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0.4062186559679037</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0.3445926196406281</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.3771267375173331</v>
+        <v>0.630465194260059</v>
       </c>
     </row>
     <row r="5">
@@ -953,109 +785,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>97</v>
+        <v>283</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="I5" t="n">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="M5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>1593</v>
       </c>
       <c r="P5" t="n">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="Q5" t="n">
-        <v>650</v>
+        <v>74</v>
       </c>
       <c r="R5" t="n">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="T5" t="n">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.6217543859649123</v>
       </c>
       <c r="W5" t="n">
-        <v>30</v>
+        <v>2850</v>
       </c>
       <c r="X5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0.4062186559679037</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>997</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>997</v>
+        <v>2850</v>
       </c>
     </row>
   </sheetData>

--- a/reports/corpus_1-unigram_bigram_trigram-fold-5.xlsx
+++ b/reports/corpus_1-unigram_bigram_trigram-fold-5.xlsx
@@ -557,73 +557,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9964788732394366</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1463414634146341</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7193877551020408</v>
+        <v>0.8979591836734694</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9251700680272109</v>
+        <v>0.9659863945578231</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.9340659340659341</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3011363636363636</v>
+        <v>0.6988636363636364</v>
       </c>
       <c r="M2" t="n">
-        <v>0.28</v>
+        <v>0.92</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9964539007092199</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2635658914728682</v>
+        <v>0.4728682170542636</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.74</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5132075471698113</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1932584269662921</v>
+        <v>0.5707865168539326</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3928571428571428</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6217543859649123</v>
+        <v>0.8150877192982456</v>
       </c>
       <c r="W2" t="n">
-        <v>0.4737591719960513</v>
+        <v>0.84322934086917</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8584499169749052</v>
+        <v>0.872180943367149</v>
       </c>
     </row>
     <row r="3">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -642,64 +642,64 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.993006993006993</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.9770114942528736</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8983050847457628</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9523809523809523</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3527934714375393</v>
+        <v>0.5702479338842975</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0.953125</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9645390070921985</v>
+        <v>0.9728506787330317</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9882352941176471</v>
+        <v>0.923728813559322</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9052631578947369</v>
+        <v>0.9039145907473309</v>
       </c>
       <c r="U3" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6217543859649123</v>
+        <v>0.8150877192982456</v>
       </c>
       <c r="W3" t="n">
-        <v>0.7559333363061472</v>
+        <v>0.8747834357699791</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6217543859649123</v>
+        <v>0.8150877192982456</v>
       </c>
     </row>
     <row r="4">
@@ -709,73 +709,73 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.998236331569665</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2553191489361702</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1739130434782609</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="H4" t="n">
-        <v>0.815028901734104</v>
+        <v>0.9190600522193212</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9611307420494699</v>
+        <v>0.9793103448275861</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8588957055214724</v>
+        <v>0.9550561797752809</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4510638297872341</v>
+        <v>0.7760252365930601</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4375000000000001</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7142857142857142</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5210941121928604</v>
+        <v>0.7206266318537858</v>
       </c>
       <c r="P4" t="n">
-        <v>0.4171779141104295</v>
+        <v>0.6321243523316062</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8505747126436781</v>
+        <v>0.9690721649484536</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6699507389162561</v>
+        <v>0.8847736625514402</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8195121951219513</v>
+        <v>0.9159663865546218</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3185185185185185</v>
+        <v>0.6997245179063361</v>
       </c>
       <c r="U4" t="n">
-        <v>0.4313725490196078</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6217543859649123</v>
+        <v>0.8150877192982456</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5311072793228411</v>
+        <v>0.8375936891222553</v>
       </c>
       <c r="X4" t="n">
-        <v>0.630465194260059</v>
+        <v>0.8158964362420225</v>
       </c>
     </row>
     <row r="5">
@@ -785,67 +785,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="I5" t="n">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="L5" t="n">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="M5" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="N5" t="n">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="O5" t="n">
-        <v>1593</v>
+        <v>968</v>
       </c>
       <c r="P5" t="n">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="Q5" t="n">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="R5" t="n">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="S5" t="n">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="T5" t="n">
-        <v>95</v>
+        <v>281</v>
       </c>
       <c r="U5" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6217543859649123</v>
+        <v>0.8150877192982456</v>
       </c>
       <c r="W5" t="n">
         <v>2850</v>
